--- a/loaded_influencer_data/lilsanrihoee/lilsanrihoee_video.xlsx
+++ b/loaded_influencer_data/lilsanrihoee/lilsanrihoee_video.xlsx
@@ -506,13 +506,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7379355202551385360</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2135</v>
+        <v>2152</v>
       </c>
       <c r="C2" t="n">
         <v>60</v>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.857142857142857</v>
+        <v>2.83457249070632</v>
       </c>
       <c r="I2" t="n">
-        <v>2.810304449648712</v>
+        <v>2.788104089219331</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0468384074941452</v>
+        <v>0.04646840148698884</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2810304449648712</v>
+        <v>0.2788104089219331</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,16 +558,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7377227318508457217</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="C3" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D3" t="n">
         <v>12</v>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.225961538461539</v>
+        <v>1.219047619047619</v>
       </c>
       <c r="I3" t="n">
-        <v>1.168269230769231</v>
+        <v>1.161904761904762</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.05714285714285715</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2211538461538461</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,19 +610,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/photo/7392441507971730704</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -636,19 +636,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.678727386150967</v>
+        <v>4.672897196261682</v>
       </c>
       <c r="I4" t="n">
-        <v>4.553961322520275</v>
+        <v>4.610591900311527</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1247660636306925</v>
+        <v>0.06230529595015576</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4366812227074235</v>
+        <v>0.4361370716510903</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -662,16 +662,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7482419102674357547</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -680,97 +680,101 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>im just a girl #japanhaul #japantravel #japanbeauty #japanmakeup #japanesemakeup #japaneseskincare</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>12.79863481228669</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.62798634812287</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1706484641638225</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.194539249146758</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2024-7-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lilsanrihoee/photo/7480553363483102510</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>543</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>pretty girls are always the sweetest i swear</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>12.5886524822695</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.4113475177305</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1773049645390071</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8865248226950355</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H6" t="n">
+        <v>13.25966850828729</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.07550644567219</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1841620626151013</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9208103130755065</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lilsanrihoee/photo/7480553363483102510</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>527</v>
-      </c>
-      <c r="C6" t="n">
-        <v>56</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>11.19544592030361</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.62618595825427</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5692599620493358</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.3795066413662239</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7474077825599868202</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -780,19 +784,19 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>7.763157894736842</v>
+        <v>7.911802853437094</v>
       </c>
       <c r="I7" t="n">
-        <v>7.368421052631578</v>
+        <v>7.392996108949417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.5188067444876783</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2594033722438391</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -804,137 +808,137 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7473967768791043370</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C8" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>13.99082568807339</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.07339449541284</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9174311926605505</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4587155963302753</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lilsanrihoee/video/7473910293152795947</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>584</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72</v>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>two different people 😂😂</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>16.58986175115207</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16.3594470046083</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.2304147465437788</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.9216589861751152</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="H9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.32876712328767</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1712328767123288</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.684931506849315</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lilsanrihoee/video/7473910293152795947</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>576</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lilsanrihoee/video/7473288812282514734</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>937</v>
+      </c>
+      <c r="C10" t="n">
         <v>32</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>3</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>5.902777777777778</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3472222222222222</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.5208333333333333</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lilsanrihoee/video/7473288812282514734</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>930</v>
-      </c>
-      <c r="C10" t="n">
-        <v>65</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>6.989247311827956</v>
+        <v>3.628601921024546</v>
       </c>
       <c r="I10" t="n">
-        <v>6.989247311827956</v>
+        <v>3.415154749199573</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.2134471718249733</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1075268817204301</v>
+        <v>0.32017075773746</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -946,7 +950,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7470554201039326507</t>
         </is>
@@ -992,7 +996,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7470032069981277486</t>
         </is>
@@ -1042,7 +1046,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7470030148801187118</t>
         </is>
@@ -1092,7 +1096,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7469656578409450794</t>
         </is>
@@ -1138,7 +1142,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7469580660227919150</t>
         </is>
@@ -1184,7 +1188,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7469492028087471406</t>
         </is>
@@ -1230,7 +1234,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7469328105723809066</t>
         </is>
@@ -1280,7 +1284,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7469287173242522926</t>
         </is>
@@ -1326,7 +1330,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7469145772232068398</t>
         </is>
@@ -1372,7 +1376,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7455729202428415275</t>
         </is>
@@ -1422,7 +1426,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7452013778742398250</t>
         </is>
@@ -1472,7 +1476,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7451726977330875694</t>
         </is>
@@ -1522,7 +1526,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7449624556437802283</t>
         </is>
@@ -1568,7 +1572,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7448397358829915438</t>
         </is>
@@ -1614,7 +1618,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7446277351941492014</t>
         </is>
@@ -1664,7 +1668,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/photo/7444405275961953578</t>
         </is>
@@ -1714,7 +1718,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7443585681080782122</t>
         </is>
@@ -1760,7 +1764,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7443305914180095278</t>
         </is>
@@ -1806,7 +1810,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/photo/7439896676287991083</t>
         </is>
@@ -1856,7 +1860,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7438482090238168366</t>
         </is>
@@ -1902,7 +1906,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7438320808340049195</t>
         </is>
@@ -1952,7 +1956,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7438083753454488875</t>
         </is>
@@ -2002,7 +2006,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7437232908147936554</t>
         </is>
@@ -2052,7 +2056,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/photo/7436827253352271147</t>
         </is>
@@ -2102,7 +2106,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7434916378508889386</t>
         </is>
@@ -2148,7 +2152,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7434393088660999442</t>
         </is>
@@ -2198,7 +2202,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7433957295798668552</t>
         </is>
@@ -2248,7 +2252,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7433438568300760336</t>
         </is>
@@ -2298,7 +2302,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7432103068734459143</t>
         </is>
@@ -2348,7 +2352,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7431377843210177799</t>
         </is>
@@ -2398,7 +2402,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7431056759986326792</t>
         </is>
@@ -2448,7 +2452,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7425344265628273927</t>
         </is>
@@ -2498,7 +2502,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7421721434935889159</t>
         </is>
@@ -2548,7 +2552,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/photo/7420954271945919752</t>
         </is>
@@ -2594,7 +2598,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/photo/7420647660585012498</t>
         </is>
@@ -2640,7 +2644,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/photo/7419498482924260616</t>
         </is>
@@ -2686,7 +2690,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7419497745477553426</t>
         </is>
@@ -2732,7 +2736,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/video/7419448731696712978</t>
         </is>
@@ -2778,7 +2782,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/photo/7417257445166206226</t>
         </is>
@@ -2828,7 +2832,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilsanrihoee/photo/7411621548408196360</t>
         </is>
